--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\hotel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EADE3F-EF80-411A-9D21-A499819B0F64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -307,8 +313,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,11 +377,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +463,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,6 +515,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,14 +708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1248,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1541,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1834,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2127,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2420,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2713,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3006,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3299,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3592,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>

--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EADE3F-EF80-411A-9D21-A499819B0F64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82FCB0-FD55-4F9B-96F4-57D1FFA718A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3378,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3671,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3936,6 +3947,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:CS11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\hotel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82FCB0-FD55-4F9B-96F4-57D1FFA718A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -313,8 +307,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,19 +382,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,27 +460,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,24 +494,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -719,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +966,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1309,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1895,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2188,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2481,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2774,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3067,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3360,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3473,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -3653,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97">
       <c r="A11" s="1">
         <v>9</v>
       </c>

--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -3432,43 +3432,43 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10">
         <v>0</v>

--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -3728,22 +3728,22 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
         <v>0</v>

--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -22,10 +22,10 @@
     <t>habitaciones</t>
   </si>
   <si>
-    <t>ruidosa</t>
-  </si>
-  <si>
     <t>terraza</t>
+  </si>
+  <si>
+    <t>tranquila</t>
   </si>
   <si>
     <t>1/6</t>
@@ -369,18 +369,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -977,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1270,10 +1259,10 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2149,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3028,10 +3017,10 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3321,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3339,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3423,52 +3412,52 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -3614,10 +3603,10 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3632,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3728,22 +3717,22 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -3897,11 +3886,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:CS11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Verano_2020.xlsx
+++ b/Verano_2020.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\hotel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1CBCB-DD60-49F6-8584-68F887B74D0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -307,8 +313,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,13 +375,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +474,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,6 +526,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,14 +719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1248,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1541,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1834,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1854,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2127,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2147,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2420,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2713,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3006,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3299,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3592,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3886,6 +3947,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:CS11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>